--- a/MATRICES_WORKSPACES_NEW/BLACK_SUNRISE_HSV/GLCM_All_Data_0_45_90_135_Degree/All_Data_0_45_90_135_Degree_n.xlsx
+++ b/MATRICES_WORKSPACES_NEW/BLACK_SUNRISE_HSV/GLCM_All_Data_0_45_90_135_Degree/All_Data_0_45_90_135_Degree_n.xlsx
@@ -86,11 +86,11 @@
     <col min="26" max="26" width="12.7109375" customWidth="true"/>
     <col min="27" max="27" width="12.7109375" customWidth="true"/>
     <col min="28" max="28" width="12.7109375" customWidth="true"/>
-    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="13.7109375" customWidth="true"/>
     <col min="30" max="30" width="12.7109375" customWidth="true"/>
     <col min="31" max="31" width="12.7109375" customWidth="true"/>
     <col min="32" max="32" width="12.7109375" customWidth="true"/>
-    <col min="33" max="33" width="13.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
     <col min="34" max="34" width="12.7109375" customWidth="true"/>
     <col min="35" max="35" width="12.7109375" customWidth="true"/>
     <col min="36" max="36" width="12.7109375" customWidth="true"/>
@@ -98,11 +98,11 @@
     <col min="38" max="38" width="12.7109375" customWidth="true"/>
     <col min="39" max="39" width="12.7109375" customWidth="true"/>
     <col min="40" max="40" width="12.7109375" customWidth="true"/>
-    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="13.7109375" customWidth="true"/>
     <col min="42" max="42" width="12.7109375" customWidth="true"/>
     <col min="43" max="43" width="12.7109375" customWidth="true"/>
     <col min="44" max="44" width="12.7109375" customWidth="true"/>
-    <col min="45" max="45" width="13.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
     <col min="46" max="46" width="12.7109375" customWidth="true"/>
     <col min="47" max="47" width="12.7109375" customWidth="true"/>
     <col min="48" max="48" width="12.7109375" customWidth="true"/>
@@ -134,11 +134,11 @@
     <col min="74" max="74" width="12.7109375" customWidth="true"/>
     <col min="75" max="75" width="12.7109375" customWidth="true"/>
     <col min="76" max="76" width="12.7109375" customWidth="true"/>
-    <col min="77" max="77" width="12.7109375" customWidth="true"/>
+    <col min="77" max="77" width="13.7109375" customWidth="true"/>
     <col min="78" max="78" width="12.7109375" customWidth="true"/>
     <col min="79" max="79" width="12.7109375" customWidth="true"/>
     <col min="80" max="80" width="12.7109375" customWidth="true"/>
-    <col min="81" max="81" width="13.7109375" customWidth="true"/>
+    <col min="81" max="81" width="12.7109375" customWidth="true"/>
     <col min="82" max="82" width="12.7109375" customWidth="true"/>
     <col min="83" max="83" width="12.7109375" customWidth="true"/>
     <col min="84" max="84" width="12.7109375" customWidth="true"/>
@@ -146,11 +146,11 @@
     <col min="86" max="86" width="12.7109375" customWidth="true"/>
     <col min="87" max="87" width="12.7109375" customWidth="true"/>
     <col min="88" max="88" width="12.7109375" customWidth="true"/>
-    <col min="89" max="89" width="12.7109375" customWidth="true"/>
+    <col min="89" max="89" width="13.7109375" customWidth="true"/>
     <col min="90" max="90" width="12.7109375" customWidth="true"/>
     <col min="91" max="91" width="12.7109375" customWidth="true"/>
     <col min="92" max="92" width="12.7109375" customWidth="true"/>
-    <col min="93" max="93" width="13.7109375" customWidth="true"/>
+    <col min="93" max="93" width="12.7109375" customWidth="true"/>
     <col min="94" max="94" width="12.7109375" customWidth="true"/>
     <col min="95" max="95" width="12.7109375" customWidth="true"/>
     <col min="96" max="96" width="12.7109375" customWidth="true"/>
@@ -158,1162 +158,1162 @@
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.036020726587141047</v>
+        <v>0.018345015249600513</v>
       </c>
       <c r="B1">
-        <v>0.86938585776464039</v>
+        <v>0.88849029848841665</v>
       </c>
       <c r="C1">
-        <v>0.67310627202063433</v>
+        <v>0.75147185913729564</v>
       </c>
       <c r="D1">
-        <v>0.9824608315890635</v>
+        <v>0.99086396814461886</v>
       </c>
       <c r="E1">
-        <v>0.073678315765973376</v>
+        <v>0.01990450518121659</v>
       </c>
       <c r="F1">
-        <v>0.83525559249102044</v>
+        <v>0.74735774048668324</v>
       </c>
       <c r="G1">
-        <v>0.56338751305809909</v>
+        <v>0.89871064337506557</v>
       </c>
       <c r="H1">
-        <v>0.96354861073438725</v>
+        <v>0.99006307212604105</v>
       </c>
       <c r="I1">
-        <v>0.045644093485943983</v>
+        <v>0.077491113350253507</v>
       </c>
       <c r="J1">
-        <v>0.75402561978540372</v>
+        <v>0.86164240202717124</v>
       </c>
       <c r="K1">
-        <v>0.80751693304816696</v>
+        <v>0.55986670474481171</v>
       </c>
       <c r="L1">
-        <v>0.97808454848749349</v>
+        <v>0.96147349320086428</v>
       </c>
       <c r="M1">
-        <v>0.036020726587141047</v>
+        <v>0.018345015249600513</v>
       </c>
       <c r="N1">
-        <v>0.86938585776464039</v>
+        <v>0.88849029848841665</v>
       </c>
       <c r="O1">
-        <v>0.67310627202063433</v>
+        <v>0.75147185913729564</v>
       </c>
       <c r="P1">
-        <v>0.9824608315890635</v>
+        <v>0.99086396814461886</v>
       </c>
       <c r="Q1">
-        <v>0.073678315765973376</v>
+        <v>0.01990450518121659</v>
       </c>
       <c r="R1">
-        <v>0.83525559249102044</v>
+        <v>0.74735774048668324</v>
       </c>
       <c r="S1">
-        <v>0.56338751305809909</v>
+        <v>0.89871064337506557</v>
       </c>
       <c r="T1">
-        <v>0.96354861073438725</v>
+        <v>0.99006307212604105</v>
       </c>
       <c r="U1">
-        <v>0.045644093485943983</v>
+        <v>0.077491113350253507</v>
       </c>
       <c r="V1">
-        <v>0.75402561978540372</v>
+        <v>0.86164240202717124</v>
       </c>
       <c r="W1">
-        <v>0.80751693304816696</v>
+        <v>0.55986670474481171</v>
       </c>
       <c r="X1">
-        <v>0.97808454848749349</v>
+        <v>0.96147349320086428</v>
       </c>
       <c r="Y1">
-        <v>0.048724638124194281</v>
+        <v>0.029203361585901717</v>
       </c>
       <c r="Z1">
-        <v>0.82092366750209234</v>
+        <v>0.81876989114016097</v>
       </c>
       <c r="AA1">
-        <v>0.66229697463693915</v>
+        <v>0.74171545949335482</v>
       </c>
       <c r="AB1">
-        <v>0.97633753621022512</v>
+        <v>0.98546319862780007</v>
       </c>
       <c r="AC1">
-        <v>0.10230175787209034</v>
+        <v>0.029941838752563329</v>
       </c>
       <c r="AD1">
-        <v>0.76944867662046346</v>
+        <v>0.62499928220879331</v>
       </c>
       <c r="AE1">
-        <v>0.54240125114092941</v>
+        <v>0.88995736551036464</v>
       </c>
       <c r="AF1">
-        <v>0.94980750282907422</v>
+        <v>0.98509809878697974</v>
       </c>
       <c r="AG1">
-        <v>0.065858760815504028</v>
+        <v>0.12103622459752765</v>
       </c>
       <c r="AH1">
-        <v>0.65076018393922952</v>
+        <v>0.78226467146624235</v>
       </c>
       <c r="AI1">
-        <v>0.79336419461714325</v>
+        <v>0.53243149553876323</v>
       </c>
       <c r="AJ1">
-        <v>0.96935053636227742</v>
+        <v>0.94091469798719618</v>
       </c>
       <c r="AK1">
-        <v>0.048724638124194281</v>
+        <v>0.029203361585901717</v>
       </c>
       <c r="AL1">
-        <v>0.82092366750209234</v>
+        <v>0.81876989114016097</v>
       </c>
       <c r="AM1">
-        <v>0.66229697463693915</v>
+        <v>0.74171545949335482</v>
       </c>
       <c r="AN1">
-        <v>0.97633753621022512</v>
+        <v>0.98546319862780007</v>
       </c>
       <c r="AO1">
-        <v>0.10230175787209034</v>
+        <v>0.029941838752563329</v>
       </c>
       <c r="AP1">
-        <v>0.76944867662046346</v>
+        <v>0.62499928220879331</v>
       </c>
       <c r="AQ1">
-        <v>0.54240125114092941</v>
+        <v>0.88995736551036464</v>
       </c>
       <c r="AR1">
-        <v>0.94980750282907422</v>
+        <v>0.98509809878697974</v>
       </c>
       <c r="AS1">
-        <v>0.065858760815504028</v>
+        <v>0.12103622459752765</v>
       </c>
       <c r="AT1">
-        <v>0.65076018393922952</v>
+        <v>0.78226467146624235</v>
       </c>
       <c r="AU1">
-        <v>0.79336419461714325</v>
+        <v>0.53243149553876323</v>
       </c>
       <c r="AV1">
-        <v>0.96935053636227742</v>
+        <v>0.94091469798719618</v>
       </c>
       <c r="AW1">
-        <v>0.032194464804178924</v>
+        <v>0.021316386367751853</v>
       </c>
       <c r="AX1">
-        <v>0.88064560501238331</v>
+        <v>0.86850381606249372</v>
       </c>
       <c r="AY1">
-        <v>0.6763279996685827</v>
+        <v>0.74881192933168561</v>
       </c>
       <c r="AZ1">
-        <v>0.98425018680688092</v>
+        <v>0.98937914103767199</v>
       </c>
       <c r="BA1">
-        <v>0.073062921366224193</v>
+        <v>0.022720267190468352</v>
       </c>
       <c r="BB1">
-        <v>0.8352323112790041</v>
+        <v>0.71062458683718632</v>
       </c>
       <c r="BC1">
-        <v>0.56291642803744424</v>
+        <v>0.89624089824290532</v>
       </c>
       <c r="BD1">
-        <v>0.96368169029098538</v>
+        <v>0.98865992196175445</v>
       </c>
       <c r="BE1">
-        <v>0.046948851636343741</v>
+        <v>0.091939869407530003</v>
       </c>
       <c r="BF1">
-        <v>0.74464685563108479</v>
+        <v>0.83309029147361813</v>
       </c>
       <c r="BG1">
-        <v>0.80558698139960494</v>
+        <v>0.55013740933094868</v>
       </c>
       <c r="BH1">
-        <v>0.97713904439228783</v>
+        <v>0.95441766273937778</v>
       </c>
       <c r="BI1">
-        <v>0.032194464804178924</v>
+        <v>0.021316386367751853</v>
       </c>
       <c r="BJ1">
-        <v>0.88064560501238331</v>
+        <v>0.86850381606249372</v>
       </c>
       <c r="BK1">
-        <v>0.6763279996685827</v>
+        <v>0.74881192933168561</v>
       </c>
       <c r="BL1">
-        <v>0.98425018680688092</v>
+        <v>0.98937914103767199</v>
       </c>
       <c r="BM1">
-        <v>0.073062921366224193</v>
+        <v>0.022720267190468352</v>
       </c>
       <c r="BN1">
-        <v>0.8352323112790041</v>
+        <v>0.71062458683718632</v>
       </c>
       <c r="BO1">
-        <v>0.56291642803744424</v>
+        <v>0.89624089824290532</v>
       </c>
       <c r="BP1">
-        <v>0.96368169029098538</v>
+        <v>0.98865992196175445</v>
       </c>
       <c r="BQ1">
-        <v>0.046948851636343741</v>
+        <v>0.091939869407530003</v>
       </c>
       <c r="BR1">
-        <v>0.74464685563108479</v>
+        <v>0.83309029147361813</v>
       </c>
       <c r="BS1">
-        <v>0.80558698139960494</v>
+        <v>0.55013740933094868</v>
       </c>
       <c r="BT1">
-        <v>0.97713904439228783</v>
+        <v>0.95441766273937778</v>
       </c>
       <c r="BU1">
-        <v>0.048273309985800067</v>
+        <v>0.028241012513004468</v>
       </c>
       <c r="BV1">
-        <v>0.82153161447422207</v>
+        <v>0.8217878568952941</v>
       </c>
       <c r="BW1">
-        <v>0.66210710420249053</v>
+        <v>0.7425373821473189</v>
       </c>
       <c r="BX1">
-        <v>0.97622772164325466</v>
+        <v>0.98591506169566312</v>
       </c>
       <c r="BY1">
-        <v>0.1027615930092351</v>
+        <v>0.028647526307711894</v>
       </c>
       <c r="BZ1">
-        <v>0.76983311460556558</v>
+        <v>0.6332416218736856</v>
       </c>
       <c r="CA1">
-        <v>0.54245177007081846</v>
+        <v>0.89100977465952602</v>
       </c>
       <c r="CB1">
-        <v>0.94969896799211351</v>
+        <v>0.98572224236619166</v>
       </c>
       <c r="CC1">
-        <v>0.065093381722348811</v>
+        <v>0.11541409141505833</v>
       </c>
       <c r="CD1">
-        <v>0.64694953099865449</v>
+        <v>0.7910563382756407</v>
       </c>
       <c r="CE1">
-        <v>0.7943154693754606</v>
+        <v>0.5351166201031019</v>
       </c>
       <c r="CF1">
-        <v>0.96999635863751632</v>
+        <v>0.94327160349055394</v>
       </c>
       <c r="CG1">
-        <v>0.048273309985800067</v>
+        <v>0.028241012513004468</v>
       </c>
       <c r="CH1">
-        <v>0.82153161447422207</v>
+        <v>0.8217878568952941</v>
       </c>
       <c r="CI1">
-        <v>0.66210710420249053</v>
+        <v>0.7425373821473189</v>
       </c>
       <c r="CJ1">
-        <v>0.97622772164325466</v>
+        <v>0.98591506169566312</v>
       </c>
       <c r="CK1">
-        <v>0.1027615930092351</v>
+        <v>0.028647526307711894</v>
       </c>
       <c r="CL1">
-        <v>0.76983311460556558</v>
+        <v>0.6332416218736856</v>
       </c>
       <c r="CM1">
-        <v>0.54245177007081846</v>
+        <v>0.89100977465952602</v>
       </c>
       <c r="CN1">
-        <v>0.94969896799211351</v>
+        <v>0.98572224236619166</v>
       </c>
       <c r="CO1">
-        <v>0.065093381722348811</v>
+        <v>0.11541409141505833</v>
       </c>
       <c r="CP1">
-        <v>0.64694953099865449</v>
+        <v>0.7910563382756407</v>
       </c>
       <c r="CQ1">
-        <v>0.7943154693754606</v>
+        <v>0.5351166201031019</v>
       </c>
       <c r="CR1">
-        <v>0.96999635863751632</v>
+        <v>0.94327160349055394</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.049322160540423932</v>
+        <v>0.0090108601582003078</v>
       </c>
       <c r="B2">
-        <v>0.8849500985217551</v>
+        <v>0.62482082545462891</v>
       </c>
       <c r="C2">
-        <v>0.53834315817979839</v>
+        <v>0.95742823256749754</v>
       </c>
       <c r="D2">
-        <v>0.97537953037520575</v>
+        <v>0.99570357404452103</v>
       </c>
       <c r="E2">
-        <v>0.12742539954161269</v>
+        <v>0.10991021136003799</v>
       </c>
       <c r="F2">
-        <v>0.84383090797066362</v>
+        <v>0.80893724917341059</v>
       </c>
       <c r="G2">
-        <v>0.41112431433285679</v>
+        <v>0.48086540627878555</v>
       </c>
       <c r="H2">
-        <v>0.93772903079415704</v>
+        <v>0.94564261447392972</v>
       </c>
       <c r="I2">
-        <v>0.16571053184396486</v>
+        <v>0.1398535945343419</v>
       </c>
       <c r="J2">
-        <v>0.77375145607854701</v>
+        <v>0.78159759181618815</v>
       </c>
       <c r="K2">
-        <v>0.39804782308782938</v>
+        <v>0.45977723219957395</v>
       </c>
       <c r="L2">
-        <v>0.91893236744411366</v>
+        <v>0.93146741644311604</v>
       </c>
       <c r="M2">
-        <v>0.049322160540423932</v>
+        <v>0.0090108601582003078</v>
       </c>
       <c r="N2">
-        <v>0.8849500985217551</v>
+        <v>0.62482082545462891</v>
       </c>
       <c r="O2">
-        <v>0.53834315817979839</v>
+        <v>0.95742823256749754</v>
       </c>
       <c r="P2">
-        <v>0.97537953037520575</v>
+        <v>0.99570357404452103</v>
       </c>
       <c r="Q2">
-        <v>0.12742539954161269</v>
+        <v>0.10991021136003799</v>
       </c>
       <c r="R2">
-        <v>0.84383090797066362</v>
+        <v>0.80893724917341059</v>
       </c>
       <c r="S2">
-        <v>0.41112431433285679</v>
+        <v>0.48086540627878555</v>
       </c>
       <c r="T2">
-        <v>0.93772903079415704</v>
+        <v>0.94564261447392972</v>
       </c>
       <c r="U2">
-        <v>0.16571053184396486</v>
+        <v>0.1398535945343419</v>
       </c>
       <c r="V2">
-        <v>0.77375145607854701</v>
+        <v>0.78159759181618815</v>
       </c>
       <c r="W2">
-        <v>0.39804782308782938</v>
+        <v>0.45977723219957395</v>
       </c>
       <c r="X2">
-        <v>0.91893236744411366</v>
+        <v>0.93146741644311604</v>
       </c>
       <c r="Y2">
-        <v>0.069613828705645378</v>
+        <v>0.012542242499739339</v>
       </c>
       <c r="Z2">
-        <v>0.8371133515545115</v>
+        <v>0.51327074220257218</v>
       </c>
       <c r="AA2">
-        <v>0.52111528039910049</v>
+        <v>0.95428770997597723</v>
       </c>
       <c r="AB2">
-        <v>0.96526793945896661</v>
+        <v>0.99399734809135531</v>
       </c>
       <c r="AC2">
-        <v>0.20339506893295581</v>
+        <v>0.16253826894005455</v>
       </c>
       <c r="AD2">
-        <v>0.75243638040010485</v>
+        <v>0.71436968246341559</v>
       </c>
       <c r="AE2">
-        <v>0.37380441802617803</v>
+        <v>0.44972570151331459</v>
       </c>
       <c r="AF2">
-        <v>0.9045125971171244</v>
+        <v>0.92105876413517818</v>
       </c>
       <c r="AG2">
-        <v>0.27054501921699703</v>
+        <v>0.21015580356446353</v>
       </c>
       <c r="AH2">
-        <v>0.63396120163986669</v>
+        <v>0.67633566194365191</v>
       </c>
       <c r="AI2">
-        <v>0.35162480556701003</v>
+        <v>0.42459994459769435</v>
       </c>
       <c r="AJ2">
-        <v>0.87459715097592805</v>
+        <v>0.9010584524650983</v>
       </c>
       <c r="AK2">
-        <v>0.069613828705645378</v>
+        <v>0.012542242499739339</v>
       </c>
       <c r="AL2">
-        <v>0.8371133515545115</v>
+        <v>0.51327074220257218</v>
       </c>
       <c r="AM2">
-        <v>0.52111528039910049</v>
+        <v>0.95428770997597723</v>
       </c>
       <c r="AN2">
-        <v>0.96526793945896661</v>
+        <v>0.99399734809135531</v>
       </c>
       <c r="AO2">
-        <v>0.20339506893295581</v>
+        <v>0.16253826894005455</v>
       </c>
       <c r="AP2">
-        <v>0.75243638040010485</v>
+        <v>0.71436968246341559</v>
       </c>
       <c r="AQ2">
-        <v>0.37380441802617803</v>
+        <v>0.44972570151331459</v>
       </c>
       <c r="AR2">
-        <v>0.9045125971171244</v>
+        <v>0.92105876413517818</v>
       </c>
       <c r="AS2">
-        <v>0.27054501921699703</v>
+        <v>0.21015580356446353</v>
       </c>
       <c r="AT2">
-        <v>0.63396120163986669</v>
+        <v>0.67633566194365191</v>
       </c>
       <c r="AU2">
-        <v>0.35162480556701003</v>
+        <v>0.42459994459769435</v>
       </c>
       <c r="AV2">
-        <v>0.87459715097592805</v>
+        <v>0.9010584524650983</v>
       </c>
       <c r="AW2">
-        <v>0.048432146090628667</v>
+        <v>0.0092086836733397542</v>
       </c>
       <c r="AX2">
-        <v>0.88727356074725905</v>
+        <v>0.63409961185798702</v>
       </c>
       <c r="AY2">
-        <v>0.53915664266387597</v>
+        <v>0.95726241153778102</v>
       </c>
       <c r="AZ2">
-        <v>0.97582282499105777</v>
+        <v>0.99559742694785947</v>
       </c>
       <c r="BA2">
-        <v>0.1578459235008533</v>
+        <v>0.1175656978954757</v>
       </c>
       <c r="BB2">
-        <v>0.80868567255939083</v>
+        <v>0.79076936552944554</v>
       </c>
       <c r="BC2">
-        <v>0.3959841546931373</v>
+        <v>0.47541889275468102</v>
       </c>
       <c r="BD2">
-        <v>0.92395378930413197</v>
+        <v>0.94188104610029466</v>
       </c>
       <c r="BE2">
-        <v>0.21046562707683222</v>
+        <v>0.15117104252858601</v>
       </c>
       <c r="BF2">
-        <v>0.7164558447414191</v>
+        <v>0.76523927207474685</v>
       </c>
       <c r="BG2">
-        <v>0.37683139977559038</v>
+        <v>0.45321863602887053</v>
       </c>
       <c r="BH2">
-        <v>0.89872938077501574</v>
+        <v>0.92609699521184841</v>
       </c>
       <c r="BI2">
-        <v>0.048432146090628667</v>
+        <v>0.0092086836733397542</v>
       </c>
       <c r="BJ2">
-        <v>0.88727356074725905</v>
+        <v>0.63409961185798702</v>
       </c>
       <c r="BK2">
-        <v>0.53915664266387597</v>
+        <v>0.95726241153778102</v>
       </c>
       <c r="BL2">
-        <v>0.97582282499105777</v>
+        <v>0.99559742694785947</v>
       </c>
       <c r="BM2">
-        <v>0.1578459235008533</v>
+        <v>0.1175656978954757</v>
       </c>
       <c r="BN2">
-        <v>0.80868567255939083</v>
+        <v>0.79076936552944554</v>
       </c>
       <c r="BO2">
-        <v>0.3959841546931373</v>
+        <v>0.47541889275468102</v>
       </c>
       <c r="BP2">
-        <v>0.92395378930413197</v>
+        <v>0.94188104610029466</v>
       </c>
       <c r="BQ2">
-        <v>0.21046562707683222</v>
+        <v>0.15117104252858601</v>
       </c>
       <c r="BR2">
-        <v>0.7164558447414191</v>
+        <v>0.76523927207474685</v>
       </c>
       <c r="BS2">
-        <v>0.37683139977559038</v>
+        <v>0.45321863602887053</v>
       </c>
       <c r="BT2">
-        <v>0.89872938077501574</v>
+        <v>0.92609699521184841</v>
       </c>
       <c r="BU2">
-        <v>0.069703128116158364</v>
+        <v>0.012536745390384591</v>
       </c>
       <c r="BV2">
-        <v>0.83705429970860779</v>
+        <v>0.51568433221706689</v>
       </c>
       <c r="BW2">
-        <v>0.52099991852442717</v>
+        <v>0.95436421376760272</v>
       </c>
       <c r="BX2">
-        <v>0.96518024624098719</v>
+        <v>0.99403692587852543</v>
       </c>
       <c r="BY2">
-        <v>0.206333044096739</v>
+        <v>0.15319300986805925</v>
       </c>
       <c r="BZ2">
-        <v>0.74996768105960099</v>
+        <v>0.73158968996814144</v>
       </c>
       <c r="CA2">
-        <v>0.37368674483911413</v>
+        <v>0.45460363300988937</v>
       </c>
       <c r="CB2">
-        <v>0.90390905044012571</v>
+        <v>0.92548072707587081</v>
       </c>
       <c r="CC2">
-        <v>0.27018752163371462</v>
+        <v>0.19599842354859592</v>
       </c>
       <c r="CD2">
-        <v>0.63565176765761566</v>
+        <v>0.69415434349046046</v>
       </c>
       <c r="CE2">
-        <v>0.35265908696778608</v>
+        <v>0.43063555357042677</v>
       </c>
       <c r="CF2">
-        <v>0.87506303184372569</v>
+        <v>0.90694421930604918</v>
       </c>
       <c r="CG2">
-        <v>0.069703128116158364</v>
+        <v>0.012536745390384591</v>
       </c>
       <c r="CH2">
-        <v>0.83705429970860779</v>
+        <v>0.51568433221706689</v>
       </c>
       <c r="CI2">
-        <v>0.52099991852442717</v>
+        <v>0.95436421376760272</v>
       </c>
       <c r="CJ2">
-        <v>0.96518024624098719</v>
+        <v>0.99403692587852543</v>
       </c>
       <c r="CK2">
-        <v>0.206333044096739</v>
+        <v>0.15319300986805925</v>
       </c>
       <c r="CL2">
-        <v>0.74996768105960099</v>
+        <v>0.73158968996814144</v>
       </c>
       <c r="CM2">
-        <v>0.37368674483911413</v>
+        <v>0.45460363300988937</v>
       </c>
       <c r="CN2">
-        <v>0.90390905044012571</v>
+        <v>0.92548072707587081</v>
       </c>
       <c r="CO2">
-        <v>0.27018752163371462</v>
+        <v>0.19599842354859592</v>
       </c>
       <c r="CP2">
-        <v>0.63565176765761566</v>
+        <v>0.69415434349046046</v>
       </c>
       <c r="CQ2">
-        <v>0.35265908696778608</v>
+        <v>0.43063555357042677</v>
       </c>
       <c r="CR2">
-        <v>0.87506303184372569</v>
+        <v>0.90694421930604918</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.0086604213192625987</v>
+        <v>0.049322160540423932</v>
       </c>
       <c r="B3">
-        <v>0.62916800451927102</v>
+        <v>0.8849500985217551</v>
       </c>
       <c r="C3">
-        <v>0.9591825442705203</v>
+        <v>0.53834315817979839</v>
       </c>
       <c r="D3">
-        <v>0.99587558139963617</v>
+        <v>0.97537953037520575</v>
       </c>
       <c r="E3">
-        <v>0.10560421077043268</v>
+        <v>0.12742539954161269</v>
       </c>
       <c r="F3">
-        <v>0.81110468972684147</v>
+        <v>0.84383090797066362</v>
       </c>
       <c r="G3">
-        <v>0.49911116136253075</v>
+        <v>0.41112431433285679</v>
       </c>
       <c r="H3">
-        <v>0.94776794253938279</v>
+        <v>0.93772903079415704</v>
       </c>
       <c r="I3">
-        <v>0.13654752672375639</v>
+        <v>0.16571053184396486</v>
       </c>
       <c r="J3">
-        <v>0.78498297299865927</v>
+        <v>0.77375145607854701</v>
       </c>
       <c r="K3">
-        <v>0.46444033362344928</v>
+        <v>0.39804782308782938</v>
       </c>
       <c r="L3">
-        <v>0.93305749968464446</v>
+        <v>0.91893236744411366</v>
       </c>
       <c r="M3">
-        <v>0.0086604213192625987</v>
+        <v>0.049322160540423932</v>
       </c>
       <c r="N3">
-        <v>0.62916800451927102</v>
+        <v>0.8849500985217551</v>
       </c>
       <c r="O3">
-        <v>0.9591825442705203</v>
+        <v>0.53834315817979839</v>
       </c>
       <c r="P3">
-        <v>0.99587558139963617</v>
+        <v>0.97537953037520575</v>
       </c>
       <c r="Q3">
-        <v>0.10560421077043268</v>
+        <v>0.12742539954161269</v>
       </c>
       <c r="R3">
-        <v>0.81110468972684147</v>
+        <v>0.84383090797066362</v>
       </c>
       <c r="S3">
-        <v>0.49911116136253075</v>
+        <v>0.41112431433285679</v>
       </c>
       <c r="T3">
-        <v>0.94776794253938279</v>
+        <v>0.93772903079415704</v>
       </c>
       <c r="U3">
-        <v>0.13654752672375639</v>
+        <v>0.16571053184396486</v>
       </c>
       <c r="V3">
-        <v>0.78498297299865927</v>
+        <v>0.77375145607854701</v>
       </c>
       <c r="W3">
-        <v>0.46444033362344928</v>
+        <v>0.39804782308782938</v>
       </c>
       <c r="X3">
-        <v>0.93305749968464446</v>
+        <v>0.91893236744411366</v>
       </c>
       <c r="Y3">
-        <v>0.012058156839927215</v>
+        <v>0.069613828705645378</v>
       </c>
       <c r="Z3">
-        <v>0.50771194923957896</v>
+        <v>0.8371133515545115</v>
       </c>
       <c r="AA3">
-        <v>0.95616257853873365</v>
+        <v>0.52111528039910049</v>
       </c>
       <c r="AB3">
-        <v>0.99423559725714561</v>
+        <v>0.96526793945896661</v>
       </c>
       <c r="AC3">
-        <v>0.15620160891561194</v>
+        <v>0.20339506893295581</v>
       </c>
       <c r="AD3">
-        <v>0.71715367750338377</v>
+        <v>0.75243638040010485</v>
       </c>
       <c r="AE3">
-        <v>0.4690393425131601</v>
+        <v>0.37380441802617803</v>
       </c>
       <c r="AF3">
-        <v>0.92411938198426302</v>
+        <v>0.9045125971171244</v>
       </c>
       <c r="AG3">
-        <v>0.20539002582784918</v>
+        <v>0.27054501921699703</v>
       </c>
       <c r="AH3">
-        <v>0.68061447968475519</v>
+        <v>0.63396120163986669</v>
       </c>
       <c r="AI3">
-        <v>0.42960979273159627</v>
+        <v>0.35162480556701003</v>
       </c>
       <c r="AJ3">
-        <v>0.90317880599428613</v>
+        <v>0.87459715097592805</v>
       </c>
       <c r="AK3">
-        <v>0.012058156839927215</v>
+        <v>0.069613828705645378</v>
       </c>
       <c r="AL3">
-        <v>0.50771194923957896</v>
+        <v>0.8371133515545115</v>
       </c>
       <c r="AM3">
-        <v>0.95616257853873365</v>
+        <v>0.52111528039910049</v>
       </c>
       <c r="AN3">
-        <v>0.99423559725714561</v>
+        <v>0.96526793945896661</v>
       </c>
       <c r="AO3">
-        <v>0.15620160891561194</v>
+        <v>0.20339506893295581</v>
       </c>
       <c r="AP3">
-        <v>0.71715367750338377</v>
+        <v>0.75243638040010485</v>
       </c>
       <c r="AQ3">
-        <v>0.4690393425131601</v>
+        <v>0.37380441802617803</v>
       </c>
       <c r="AR3">
-        <v>0.92411938198426302</v>
+        <v>0.9045125971171244</v>
       </c>
       <c r="AS3">
-        <v>0.20539002582784918</v>
+        <v>0.27054501921699703</v>
       </c>
       <c r="AT3">
-        <v>0.68061447968475519</v>
+        <v>0.63396120163986669</v>
       </c>
       <c r="AU3">
-        <v>0.42960979273159627</v>
+        <v>0.35162480556701003</v>
       </c>
       <c r="AV3">
-        <v>0.90317880599428613</v>
+        <v>0.87459715097592805</v>
       </c>
       <c r="AW3">
-        <v>0.0088450066890084379</v>
+        <v>0.048432146090628667</v>
       </c>
       <c r="AX3">
-        <v>0.6288057835191303</v>
+        <v>0.88727356074725905</v>
       </c>
       <c r="AY3">
-        <v>0.9590265925773741</v>
+        <v>0.53915664266387597</v>
       </c>
       <c r="AZ3">
-        <v>0.99577531461342517</v>
+        <v>0.97582282499105777</v>
       </c>
       <c r="BA3">
-        <v>0.11300626921575503</v>
+        <v>0.1578459235008533</v>
       </c>
       <c r="BB3">
-        <v>0.79266028973806035</v>
+        <v>0.80868567255939083</v>
       </c>
       <c r="BC3">
-        <v>0.49383128993869441</v>
+        <v>0.3959841546931373</v>
       </c>
       <c r="BD3">
-        <v>0.94413002455830153</v>
+        <v>0.92395378930413197</v>
       </c>
       <c r="BE3">
-        <v>0.14796140298877056</v>
+        <v>0.21046562707683222</v>
       </c>
       <c r="BF3">
-        <v>0.76779169361190092</v>
+        <v>0.7164558447414191</v>
       </c>
       <c r="BG3">
-        <v>0.45771242955332342</v>
+        <v>0.37683139977559038</v>
       </c>
       <c r="BH3">
-        <v>0.92762875131962996</v>
+        <v>0.89872938077501574</v>
       </c>
       <c r="BI3">
-        <v>0.0088450066890084379</v>
+        <v>0.048432146090628667</v>
       </c>
       <c r="BJ3">
-        <v>0.6288057835191303</v>
+        <v>0.88727356074725905</v>
       </c>
       <c r="BK3">
-        <v>0.9590265925773741</v>
+        <v>0.53915664266387597</v>
       </c>
       <c r="BL3">
-        <v>0.99577531461342517</v>
+        <v>0.97582282499105777</v>
       </c>
       <c r="BM3">
-        <v>0.11300626921575503</v>
+        <v>0.1578459235008533</v>
       </c>
       <c r="BN3">
-        <v>0.79266028973806035</v>
+        <v>0.80868567255939083</v>
       </c>
       <c r="BO3">
-        <v>0.49383128993869441</v>
+        <v>0.3959841546931373</v>
       </c>
       <c r="BP3">
-        <v>0.94413002455830153</v>
+        <v>0.92395378930413197</v>
       </c>
       <c r="BQ3">
-        <v>0.14796140298877056</v>
+        <v>0.21046562707683222</v>
       </c>
       <c r="BR3">
-        <v>0.76779169361190092</v>
+        <v>0.7164558447414191</v>
       </c>
       <c r="BS3">
-        <v>0.45771242955332342</v>
+        <v>0.37683139977559038</v>
       </c>
       <c r="BT3">
-        <v>0.92762875131962996</v>
+        <v>0.89872938077501574</v>
       </c>
       <c r="BU3">
-        <v>0.012054427779331215</v>
+        <v>0.069703128116158364</v>
       </c>
       <c r="BV3">
-        <v>0.51088133371674416</v>
+        <v>0.83705429970860779</v>
       </c>
       <c r="BW3">
-        <v>0.9562362171565103</v>
+        <v>0.52099991852442717</v>
       </c>
       <c r="BX3">
-        <v>0.99427366539688289</v>
+        <v>0.96518024624098719</v>
       </c>
       <c r="BY3">
-        <v>0.14726001660448612</v>
+        <v>0.206333044096739</v>
       </c>
       <c r="BZ3">
-        <v>0.73379219819185892</v>
+        <v>0.74996768105960099</v>
       </c>
       <c r="CA3">
-        <v>0.47371895529026536</v>
+        <v>0.37368674483911413</v>
       </c>
       <c r="CB3">
-        <v>0.92835111647948865</v>
+        <v>0.90390905044012571</v>
       </c>
       <c r="CC3">
-        <v>0.19157415087446872</v>
+        <v>0.27018752163371462</v>
       </c>
       <c r="CD3">
-        <v>0.6981204364638266</v>
+        <v>0.63565176765761566</v>
       </c>
       <c r="CE3">
-        <v>0.43554035252517698</v>
+        <v>0.35265908696778608</v>
       </c>
       <c r="CF3">
-        <v>0.90893584683667583</v>
+        <v>0.87506303184372569</v>
       </c>
       <c r="CG3">
-        <v>0.012054427779331215</v>
+        <v>0.069703128116158364</v>
       </c>
       <c r="CH3">
-        <v>0.51088133371674416</v>
+        <v>0.83705429970860779</v>
       </c>
       <c r="CI3">
-        <v>0.9562362171565103</v>
+        <v>0.52099991852442717</v>
       </c>
       <c r="CJ3">
-        <v>0.99427366539688289</v>
+        <v>0.96518024624098719</v>
       </c>
       <c r="CK3">
-        <v>0.14726001660448612</v>
+        <v>0.206333044096739</v>
       </c>
       <c r="CL3">
-        <v>0.73379219819185892</v>
+        <v>0.74996768105960099</v>
       </c>
       <c r="CM3">
-        <v>0.47371895529026536</v>
+        <v>0.37368674483911413</v>
       </c>
       <c r="CN3">
-        <v>0.92835111647948865</v>
+        <v>0.90390905044012571</v>
       </c>
       <c r="CO3">
-        <v>0.19157415087446872</v>
+        <v>0.27018752163371462</v>
       </c>
       <c r="CP3">
-        <v>0.6981204364638266</v>
+        <v>0.63565176765761566</v>
       </c>
       <c r="CQ3">
-        <v>0.43554035252517698</v>
+        <v>0.35265908696778608</v>
       </c>
       <c r="CR3">
-        <v>0.90893584683667583</v>
+        <v>0.87506303184372569</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.019049333333452791</v>
+        <v>0.036020726587141047</v>
       </c>
       <c r="B4">
-        <v>0.89556406537331312</v>
+        <v>0.86938585776464039</v>
       </c>
       <c r="C4">
-        <v>0.7413114630449833</v>
+        <v>0.67310627202063433</v>
       </c>
       <c r="D4">
-        <v>0.9905075112791859</v>
+        <v>0.9824608315890635</v>
       </c>
       <c r="E4">
-        <v>0.020029667954410479</v>
+        <v>0.073678315765973376</v>
       </c>
       <c r="F4">
-        <v>0.74284123112664857</v>
+        <v>0.83525559249102044</v>
       </c>
       <c r="G4">
-        <v>0.89969968201203998</v>
+        <v>0.56338751305809909</v>
       </c>
       <c r="H4">
-        <v>0.99000112926930461</v>
+        <v>0.96354861073438725</v>
       </c>
       <c r="I4">
-        <v>0.077868137663776774</v>
+        <v>0.045644093485943983</v>
       </c>
       <c r="J4">
-        <v>0.8619307593884048</v>
+        <v>0.75402561978540372</v>
       </c>
       <c r="K4">
-        <v>0.55984030815270891</v>
+        <v>0.80751693304816696</v>
       </c>
       <c r="L4">
-        <v>0.96129267148172814</v>
+        <v>0.97808454848749349</v>
       </c>
       <c r="M4">
-        <v>0.019049333333452791</v>
+        <v>0.036020726587141047</v>
       </c>
       <c r="N4">
-        <v>0.89556406537331312</v>
+        <v>0.86938585776464039</v>
       </c>
       <c r="O4">
-        <v>0.7413114630449833</v>
+        <v>0.67310627202063433</v>
       </c>
       <c r="P4">
-        <v>0.9905075112791859</v>
+        <v>0.9824608315890635</v>
       </c>
       <c r="Q4">
-        <v>0.020029667954410479</v>
+        <v>0.073678315765973376</v>
       </c>
       <c r="R4">
-        <v>0.74284123112664857</v>
+        <v>0.83525559249102044</v>
       </c>
       <c r="S4">
-        <v>0.89969968201203998</v>
+        <v>0.56338751305809909</v>
       </c>
       <c r="T4">
-        <v>0.99000112926930461</v>
+        <v>0.96354861073438725</v>
       </c>
       <c r="U4">
-        <v>0.077868137663776774</v>
+        <v>0.045644093485943983</v>
       </c>
       <c r="V4">
-        <v>0.8619307593884048</v>
+        <v>0.75402561978540372</v>
       </c>
       <c r="W4">
-        <v>0.55984030815270891</v>
+        <v>0.80751693304816696</v>
       </c>
       <c r="X4">
-        <v>0.96129267148172814</v>
+        <v>0.97808454848749349</v>
       </c>
       <c r="Y4">
-        <v>0.030333251974989393</v>
+        <v>0.048724638124194281</v>
       </c>
       <c r="Z4">
-        <v>0.83650193601258804</v>
+        <v>0.82092366750209234</v>
       </c>
       <c r="AA4">
-        <v>0.7311709006834316</v>
+        <v>0.66229697463693915</v>
       </c>
       <c r="AB4">
-        <v>0.98489318481760735</v>
+        <v>0.97633753621022512</v>
       </c>
       <c r="AC4">
-        <v>0.030119981516749519</v>
+        <v>0.10230175787209034</v>
       </c>
       <c r="AD4">
-        <v>0.61876991999554576</v>
+        <v>0.76944867662046346</v>
       </c>
       <c r="AE4">
-        <v>0.89091807461038075</v>
+        <v>0.54240125114092941</v>
       </c>
       <c r="AF4">
-        <v>0.98501184833329514</v>
+        <v>0.94980750282907422</v>
       </c>
       <c r="AG4">
-        <v>0.12161210877019157</v>
+        <v>0.065858760815504028</v>
       </c>
       <c r="AH4">
-        <v>0.78282744422935757</v>
+        <v>0.65076018393922952</v>
       </c>
       <c r="AI4">
-        <v>0.53241561350746247</v>
+        <v>0.79336419461714325</v>
       </c>
       <c r="AJ4">
-        <v>0.94066705670768125</v>
+        <v>0.96935053636227742</v>
       </c>
       <c r="AK4">
-        <v>0.030333251974989393</v>
+        <v>0.048724638124194281</v>
       </c>
       <c r="AL4">
-        <v>0.83650193601258804</v>
+        <v>0.82092366750209234</v>
       </c>
       <c r="AM4">
-        <v>0.7311709006834316</v>
+        <v>0.66229697463693915</v>
       </c>
       <c r="AN4">
-        <v>0.98489318481760735</v>
+        <v>0.97633753621022512</v>
       </c>
       <c r="AO4">
-        <v>0.030119981516749519</v>
+        <v>0.10230175787209034</v>
       </c>
       <c r="AP4">
-        <v>0.61876991999554576</v>
+        <v>0.76944867662046346</v>
       </c>
       <c r="AQ4">
-        <v>0.89091807461038075</v>
+        <v>0.54240125114092941</v>
       </c>
       <c r="AR4">
-        <v>0.98501184833329514</v>
+        <v>0.94980750282907422</v>
       </c>
       <c r="AS4">
-        <v>0.12161210877019157</v>
+        <v>0.065858760815504028</v>
       </c>
       <c r="AT4">
-        <v>0.78282744422935757</v>
+        <v>0.65076018393922952</v>
       </c>
       <c r="AU4">
-        <v>0.53241561350746247</v>
+        <v>0.79336419461714325</v>
       </c>
       <c r="AV4">
-        <v>0.94066705670768125</v>
+        <v>0.96935053636227742</v>
       </c>
       <c r="AW4">
-        <v>0.02214818326591721</v>
+        <v>0.032194464804178924</v>
       </c>
       <c r="AX4">
-        <v>0.88303510340931901</v>
+        <v>0.88064560501238331</v>
       </c>
       <c r="AY4">
-        <v>0.7385387296374647</v>
+        <v>0.6763279996685827</v>
       </c>
       <c r="AZ4">
-        <v>0.98895994689240507</v>
+        <v>0.98425018680688092</v>
       </c>
       <c r="BA4">
-        <v>0.022871860056174993</v>
+        <v>0.073062921366224193</v>
       </c>
       <c r="BB4">
-        <v>0.70558338927058906</v>
+        <v>0.8352323112790041</v>
       </c>
       <c r="BC4">
-        <v>0.89720399100596937</v>
+        <v>0.56291642803744424</v>
       </c>
       <c r="BD4">
-        <v>0.98858496117710903</v>
+        <v>0.96368169029098538</v>
       </c>
       <c r="BE4">
-        <v>0.092360579446653254</v>
+        <v>0.046948851636343741</v>
       </c>
       <c r="BF4">
-        <v>0.83362023789846562</v>
+        <v>0.74464685563108479</v>
       </c>
       <c r="BG4">
-        <v>0.55013127737986101</v>
+        <v>0.80558698139960494</v>
       </c>
       <c r="BH4">
-        <v>0.95421911005602145</v>
+        <v>0.97713904439228783</v>
       </c>
       <c r="BI4">
-        <v>0.02214818326591721</v>
+        <v>0.032194464804178924</v>
       </c>
       <c r="BJ4">
-        <v>0.88303510340931901</v>
+        <v>0.88064560501238331</v>
       </c>
       <c r="BK4">
-        <v>0.7385387296374647</v>
+        <v>0.6763279996685827</v>
       </c>
       <c r="BL4">
-        <v>0.98895994689240507</v>
+        <v>0.98425018680688092</v>
       </c>
       <c r="BM4">
-        <v>0.022871860056174993</v>
+        <v>0.073062921366224193</v>
       </c>
       <c r="BN4">
-        <v>0.70558338927058906</v>
+        <v>0.8352323112790041</v>
       </c>
       <c r="BO4">
-        <v>0.89720399100596937</v>
+        <v>0.56291642803744424</v>
       </c>
       <c r="BP4">
-        <v>0.98858496117710903</v>
+        <v>0.96368169029098538</v>
       </c>
       <c r="BQ4">
-        <v>0.092360579446653254</v>
+        <v>0.046948851636343741</v>
       </c>
       <c r="BR4">
-        <v>0.83362023789846562</v>
+        <v>0.74464685563108479</v>
       </c>
       <c r="BS4">
-        <v>0.55013127737986101</v>
+        <v>0.80558698139960494</v>
       </c>
       <c r="BT4">
-        <v>0.95421911005602145</v>
+        <v>0.97713904439228783</v>
       </c>
       <c r="BU4">
-        <v>0.029329442826394991</v>
+        <v>0.048273309985800067</v>
       </c>
       <c r="BV4">
-        <v>0.83886486907384394</v>
+        <v>0.82153161447422207</v>
       </c>
       <c r="BW4">
-        <v>0.73202646111312364</v>
+        <v>0.66210710420249053</v>
       </c>
       <c r="BX4">
-        <v>0.98536358512152211</v>
+        <v>0.97622772164325466</v>
       </c>
       <c r="BY4">
-        <v>0.02879782509657991</v>
+        <v>0.1027615930092351</v>
       </c>
       <c r="BZ4">
-        <v>0.62716152830173744</v>
+        <v>0.76983311460556558</v>
       </c>
       <c r="CA4">
-        <v>0.89198957384258903</v>
+        <v>0.54245177007081846</v>
       </c>
       <c r="CB4">
-        <v>0.98564895504003225</v>
+        <v>0.94969896799211351</v>
       </c>
       <c r="CC4">
-        <v>0.11603825631620877</v>
+        <v>0.065093381722348811</v>
       </c>
       <c r="CD4">
-        <v>0.79152443771565995</v>
+        <v>0.64694953099865449</v>
       </c>
       <c r="CE4">
-        <v>0.53505567881602178</v>
+        <v>0.7943154693754606</v>
       </c>
       <c r="CF4">
-        <v>0.94299277972067774</v>
+        <v>0.96999635863751632</v>
       </c>
       <c r="CG4">
-        <v>0.029329442826394991</v>
+        <v>0.048273309985800067</v>
       </c>
       <c r="CH4">
-        <v>0.83886486907384394</v>
+        <v>0.82153161447422207</v>
       </c>
       <c r="CI4">
-        <v>0.73202646111312364</v>
+        <v>0.66210710420249053</v>
       </c>
       <c r="CJ4">
-        <v>0.98536358512152211</v>
+        <v>0.97622772164325466</v>
       </c>
       <c r="CK4">
-        <v>0.02879782509657991</v>
+        <v>0.1027615930092351</v>
       </c>
       <c r="CL4">
-        <v>0.62716152830173744</v>
+        <v>0.76983311460556558</v>
       </c>
       <c r="CM4">
-        <v>0.89198957384258903</v>
+        <v>0.54245177007081846</v>
       </c>
       <c r="CN4">
-        <v>0.98564895504003225</v>
+        <v>0.94969896799211351</v>
       </c>
       <c r="CO4">
-        <v>0.11603825631620877</v>
+        <v>0.065093381722348811</v>
       </c>
       <c r="CP4">
-        <v>0.79152443771565995</v>
+        <v>0.64694953099865449</v>
       </c>
       <c r="CQ4">
-        <v>0.53505567881602178</v>
+        <v>0.7943154693754606</v>
       </c>
       <c r="CR4">
-        <v>0.94299277972067774</v>
+        <v>0.96999635863751632</v>
       </c>
     </row>
   </sheetData>
